--- a/docs/RMSE_ELM_git.xlsx
+++ b/docs/RMSE_ELM_git.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3c9903280de0ad7/Doctorado/publicaciones/02.Nosie_filters/Tablas para resultados/Tablas Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Desktop/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{5CDEE042-2127-904F-9BA8-F8BCD8879F1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{874C63DE-81C1-644C-A612-45AB4C35AEEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1B3D21-7D54-6744-BB9F-C8CCA955EE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3980" yWindow="-16460" windowWidth="35900" windowHeight="16380" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
+    <workbookView xWindow="-5420" yWindow="-18860" windowWidth="35900" windowHeight="16380" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
   </bookViews>
   <sheets>
     <sheet name="%5 of noise" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="37">
   <si>
     <t>Dataset</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>IRF</t>
+  </si>
+  <si>
+    <t>HRRF</t>
+  </si>
+  <si>
+    <t>CNDC</t>
+  </si>
+  <si>
+    <t>FMF</t>
   </si>
 </sst>
 </file>
@@ -536,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C03CF1A-F7B8-ED4C-8243-C53D47356A15}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -545,7 +554,7 @@
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -588,8 +597,14 @@
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -632,8 +647,14 @@
       <c r="N2" s="4">
         <v>8.1900000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.1100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -676,8 +697,14 @@
       <c r="N3" s="4">
         <v>0.53039999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.54339999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -720,8 +747,14 @@
       <c r="N4" s="4">
         <v>5.3100000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>5.33E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -764,8 +797,14 @@
       <c r="N5" s="4">
         <v>0.1573</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.15140000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -808,8 +847,14 @@
       <c r="N6" s="4">
         <v>0.13689999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.13730000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -852,8 +897,14 @@
       <c r="N7" s="4">
         <v>0.11609999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.1145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -896,8 +947,14 @@
       <c r="N8" s="4">
         <v>3.9699999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -940,8 +997,14 @@
       <c r="N9" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -984,8 +1047,14 @@
       <c r="N10" s="4">
         <v>4.2099999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1028,8 +1097,14 @@
       <c r="N11" s="4">
         <v>0.1004</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>0.1014</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.1014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1072,8 +1147,14 @@
       <c r="N12" s="4">
         <v>5.2699999999999997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1116,8 +1197,14 @@
       <c r="N13" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>5.79E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.57E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1160,8 +1247,14 @@
       <c r="N14" s="4">
         <v>9.1600000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.0300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1204,8 +1297,14 @@
       <c r="N15" s="4">
         <v>8.6E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,8 +1347,14 @@
       <c r="N16" s="4">
         <v>0.44219999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.44090000000000001</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.44059999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1292,8 +1397,14 @@
       <c r="N17" s="4">
         <v>0.15409999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.154</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1336,8 +1447,14 @@
       <c r="N18" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1380,8 +1497,14 @@
       <c r="N19" s="4">
         <v>1.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1424,8 +1547,14 @@
       <c r="N20" s="4">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1466,6 +1595,12 @@
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="N21" s="4">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="P21" s="4">
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
@@ -1476,7 +1611,1075 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5330-79EB-964D-9D40-2E0A1E2E0875}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.1338</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>8.09E-2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>8.43E-2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.3500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.53080000000000005</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.52480000000000004</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.5292</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.52559999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.1709</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.27650000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.1179</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>5.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.1678</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.1517</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.1512</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.1512</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.159</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.1515</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.1515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.1983</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1464</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.1358</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.1447</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.1457</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.1371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.1613</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.1179</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.1168</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.1153</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.1144</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.1191</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.1158</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.1174</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.1152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4.02E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.1133</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4.19E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>4.1300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.1046</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9.64E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.1017</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.105</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.1037</v>
+      </c>
+      <c r="L11" s="4">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="M11" s="4">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.1069</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.1948</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.16E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.1212</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5.11E-2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5.11E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>5.11E-2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.1517</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5.79E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6.83E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>7.22E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9.11E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="L14" s="4">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="O14" s="4">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.1368</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8.6E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="I15" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="M15" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="O15" s="4">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.44469999999999998</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.45090000000000002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.44190000000000002</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.45090000000000002</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.441</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.4405</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.443</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.442</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.44130000000000003</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.44059999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.1734</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.15690000000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.1555</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.154</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.154</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.1454</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.1522</v>
+      </c>
+      <c r="I18" s="4">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>8.09E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.1394</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.1237</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.43E-2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.1603</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.47E-2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1.38E-2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.1119</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.18E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2.18E-2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="O20" s="4">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.1178</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.07E-2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.1042</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2.06E-2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M21" s="4">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2.06E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1485,7 +2688,7 @@
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,1788 +2731,968 @@
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
-        <v>0.1338</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="C2" s="4">
-        <v>8.4099999999999994E-2</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="D2" s="4">
-        <v>8.8800000000000004E-2</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="E2" s="4">
-        <v>0.10489999999999999</v>
+        <v>0.1096</v>
       </c>
       <c r="F2" s="4">
-        <v>8.4599999999999995E-2</v>
+        <v>7.8200000000000006E-2</v>
       </c>
       <c r="G2" s="4">
-        <v>8.2600000000000007E-2</v>
+        <v>9.6100000000000005E-2</v>
       </c>
       <c r="H2" s="4">
-        <v>0.10489999999999999</v>
+        <v>0.13139999999999999</v>
       </c>
       <c r="I2" s="4">
-        <v>8.4500000000000006E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="J2" s="4">
-        <v>8.3599999999999994E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="K2" s="4">
-        <v>8.09E-2</v>
+        <v>7.8200000000000006E-2</v>
       </c>
       <c r="L2" s="4">
-        <v>8.43E-2</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="M2" s="4">
-        <v>8.4599999999999995E-2</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="N2" s="4">
-        <v>8.4900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4">
-        <v>0.51939999999999997</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="C3" s="4">
-        <v>0.62790000000000001</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="D3" s="4">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.52010000000000001</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.54710000000000003</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.53080000000000005</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.51890000000000003</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.54710000000000003</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.52480000000000004</v>
-      </c>
       <c r="J3" s="4">
-        <v>0.52290000000000003</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="K3" s="4">
-        <v>0.52459999999999996</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="L3" s="4">
-        <v>0.52180000000000004</v>
+        <v>0.52849999999999997</v>
       </c>
       <c r="M3" s="4">
-        <v>0.53139999999999998</v>
+        <v>0.52259999999999995</v>
       </c>
       <c r="N3" s="4">
-        <v>0.5292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.53049999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="4">
-        <v>0.1709</v>
+        <v>0.1656</v>
       </c>
       <c r="C4" s="4">
-        <v>7.8299999999999995E-2</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>7.3200000000000001E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="E4" s="4">
-        <v>0.27650000000000002</v>
+        <v>0.18279999999999999</v>
       </c>
       <c r="F4" s="4">
-        <v>6.0400000000000002E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="G4" s="4">
-        <v>0.10829999999999999</v>
+        <v>0.1012</v>
       </c>
       <c r="H4" s="4">
-        <v>0.32200000000000001</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="I4" s="4">
-        <v>5.8200000000000002E-2</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="J4" s="4">
-        <v>5.6300000000000003E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K4" s="4">
-        <v>6.3200000000000006E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="L4" s="4">
-        <v>0.1179</v>
+        <v>0.1071</v>
       </c>
       <c r="M4" s="4">
-        <v>6.9599999999999995E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="N4" s="4">
-        <v>5.6599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>5.6399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4">
-        <v>0.18110000000000001</v>
+        <v>0.19550000000000001</v>
       </c>
       <c r="C5" s="4">
-        <v>0.15429999999999999</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="D5" s="4">
-        <v>0.15629999999999999</v>
+        <v>0.1489</v>
       </c>
       <c r="E5" s="4">
-        <v>0.1678</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F5" s="4">
-        <v>0.15160000000000001</v>
+        <v>0.14660000000000001</v>
       </c>
       <c r="G5" s="4">
-        <v>0.1517</v>
+        <v>0.1537</v>
       </c>
       <c r="H5" s="4">
-        <v>0.17580000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="I5" s="4">
-        <v>0.15529999999999999</v>
+        <v>0.15459999999999999</v>
       </c>
       <c r="J5" s="4">
-        <v>0.1512</v>
+        <v>0.15029999999999999</v>
       </c>
       <c r="K5" s="4">
-        <v>0.1512</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="L5" s="4">
-        <v>0.15179999999999999</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="M5" s="4">
-        <v>0.159</v>
+        <v>0.15570000000000001</v>
       </c>
       <c r="N5" s="4">
-        <v>0.15679999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.1585</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.15190000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1983</v>
+        <v>0.2235</v>
       </c>
       <c r="C6" s="4">
-        <v>0.13619999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1464</v>
+        <v>0.1681</v>
       </c>
       <c r="E6" s="4">
-        <v>0.18</v>
+        <v>0.21510000000000001</v>
       </c>
       <c r="F6" s="4">
-        <v>0.13450000000000001</v>
+        <v>0.1663</v>
       </c>
       <c r="G6" s="4">
-        <v>0.14419999999999999</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="H6" s="4">
-        <v>0.19350000000000001</v>
+        <v>0.22070000000000001</v>
       </c>
       <c r="I6" s="4">
-        <v>0.14480000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="J6" s="4">
-        <v>0.13370000000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="K6" s="4">
-        <v>0.13930000000000001</v>
+        <v>0.1431</v>
       </c>
       <c r="L6" s="4">
-        <v>0.1358</v>
+        <v>0.1583</v>
       </c>
       <c r="M6" s="4">
-        <v>0.1447</v>
+        <v>0.1426</v>
       </c>
       <c r="N6" s="4">
-        <v>0.1457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.1429</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.12870000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4">
-        <v>0.1613</v>
+        <v>0.17519999999999999</v>
       </c>
       <c r="C7" s="4">
-        <v>0.1179</v>
+        <v>0.1278</v>
       </c>
       <c r="D7" s="4">
-        <v>0.12640000000000001</v>
+        <v>0.1285</v>
       </c>
       <c r="E7" s="4">
-        <v>0.13850000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F7" s="4">
-        <v>0.1168</v>
+        <v>0.1188</v>
       </c>
       <c r="G7" s="4">
-        <v>0.11890000000000001</v>
+        <v>0.1242</v>
       </c>
       <c r="H7" s="4">
-        <v>0.13850000000000001</v>
+        <v>0.19620000000000001</v>
       </c>
       <c r="I7" s="4">
-        <v>0.1153</v>
+        <v>0.1162</v>
       </c>
       <c r="J7" s="4">
-        <v>0.11459999999999999</v>
+        <v>0.1177</v>
       </c>
       <c r="K7" s="4">
-        <v>0.1144</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="L7" s="4">
-        <v>0.11899999999999999</v>
+        <v>0.1275</v>
       </c>
       <c r="M7" s="4">
-        <v>0.1191</v>
+        <v>0.1212</v>
       </c>
       <c r="N7" s="4">
-        <v>0.1158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.1157</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.1212</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.1166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4">
-        <v>9.6199999999999994E-2</v>
+        <v>0.1201</v>
       </c>
       <c r="C8" s="4">
+        <v>4.02E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4.02E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="P8" s="4">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="D8" s="4">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>4.02E-2</v>
-      </c>
-      <c r="M8" s="4">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>3.9699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="4">
-        <v>0.10829999999999999</v>
+        <v>0.1234</v>
       </c>
       <c r="C9" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.45E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="I9" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="D9" s="4">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="J9" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5.45E-2</v>
+      </c>
+      <c r="P9" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="G9" s="4">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5.3699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="4">
-        <v>0.14979999999999999</v>
+        <v>0.1759</v>
       </c>
       <c r="C10" s="4">
-        <v>4.1799999999999997E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>4.2700000000000002E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="E10" s="4">
-        <v>0.1133</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="F10" s="4">
-        <v>4.1399999999999999E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="G10" s="4">
-        <v>5.5800000000000002E-2</v>
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="H10" s="4">
-        <v>0.13339999999999999</v>
+        <v>0.15110000000000001</v>
       </c>
       <c r="I10" s="4">
-        <v>4.19E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="J10" s="4">
-        <v>4.1099999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="K10" s="4">
-        <v>4.1399999999999999E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="L10" s="4">
-        <v>5.5800000000000002E-2</v>
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="M10" s="4">
-        <v>4.2299999999999997E-2</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="N10" s="4">
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="4">
-        <v>0.13980000000000001</v>
+        <v>0.1497</v>
       </c>
       <c r="C11" s="4">
-        <v>0.1046</v>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>0.10630000000000001</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="E11" s="4">
-        <v>9.7000000000000003E-2</v>
+        <v>9.7699999999999995E-2</v>
       </c>
       <c r="F11" s="4">
-        <v>0.10390000000000001</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="G11" s="4">
-        <v>9.64E-2</v>
+        <v>0.1038</v>
       </c>
       <c r="H11" s="4">
-        <v>9.9000000000000005E-2</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>0.1017</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="J11" s="4">
-        <v>0.105</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="K11" s="4">
-        <v>0.1037</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="L11" s="4">
-        <v>9.5899999999999999E-2</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="M11" s="4">
-        <v>9.2600000000000002E-2</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="N11" s="4">
-        <v>9.2700000000000005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.1057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
-        <v>0.1948</v>
+        <v>0.22409999999999999</v>
       </c>
       <c r="C12" s="4">
-        <v>5.0099999999999999E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>6.9800000000000001E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="E12" s="4">
-        <v>0.21229999999999999</v>
+        <v>0.23530000000000001</v>
       </c>
       <c r="F12" s="4">
-        <v>5.16E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="G12" s="4">
-        <v>0.1212</v>
+        <v>0.13830000000000001</v>
       </c>
       <c r="H12" s="4">
-        <v>0.25969999999999999</v>
+        <v>0.19370000000000001</v>
       </c>
       <c r="I12" s="4">
-        <v>5.1400000000000001E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="J12" s="4">
-        <v>5.11E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="K12" s="4">
-        <v>5.11E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="L12" s="4">
-        <v>9.7000000000000003E-2</v>
+        <v>0.1137</v>
       </c>
       <c r="M12" s="4">
-        <v>5.0099999999999999E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="N12" s="4">
-        <v>5.11E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.33E-2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.1036</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="4">
-        <v>0.1517</v>
+        <v>0.18579999999999999</v>
       </c>
       <c r="C13" s="4">
-        <v>5.79E-2</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>5.8900000000000001E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="E13" s="4">
-        <v>0.12189999999999999</v>
+        <v>0.1512</v>
       </c>
       <c r="F13" s="4">
-        <v>5.4899999999999997E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="G13" s="4">
-        <v>6.83E-2</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="H13" s="4">
-        <v>0.14610000000000001</v>
+        <v>0.1754</v>
       </c>
       <c r="I13" s="4">
-        <v>5.3699999999999998E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="J13" s="4">
-        <v>5.3900000000000003E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="K13" s="4">
-        <v>5.5599999999999997E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="L13" s="4">
-        <v>7.22E-2</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="M13" s="4">
-        <v>5.4899999999999997E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="N13" s="4">
-        <v>5.3499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="4">
-        <v>0.17399999999999999</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="C14" s="4">
-        <v>9.1499999999999998E-2</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="E14" s="4">
-        <v>0.17979999999999999</v>
+        <v>0.16289999999999999</v>
       </c>
       <c r="F14" s="4">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.18459999999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>9.01E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.111</v>
+      </c>
+      <c r="M14" s="4">
         <v>9.11E-2</v>
       </c>
-      <c r="G14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.19620000000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>9.0499999999999997E-2</v>
-      </c>
-      <c r="J14" s="4">
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="L14" s="4">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="M14" s="4">
-        <v>9.1300000000000006E-2</v>
-      </c>
       <c r="N14" s="4">
-        <v>9.1600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.1067</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.1368</v>
+        <v>0.16039999999999999</v>
       </c>
       <c r="C15" s="4">
-        <v>8.6E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>4.8399999999999999E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>0.13250000000000001</v>
+        <v>0.13930000000000001</v>
       </c>
       <c r="F15" s="4">
-        <v>1.0800000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G15" s="4">
-        <v>4.2200000000000001E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="H15" s="4">
-        <v>0.20349999999999999</v>
+        <v>0.16389999999999999</v>
       </c>
       <c r="I15" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>1.29E-2</v>
       </c>
       <c r="J15" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K15" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="L15" s="4">
-        <v>4.5199999999999997E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="M15" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="N15" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.06E-2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4">
+        <v>0.4395</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.4289</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.4254</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.42809999999999998</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.4264</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.442</v>
+      </c>
+      <c r="P16" s="4">
         <v>0.44080000000000003</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.44069999999999998</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.44469999999999998</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.45090000000000002</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.44069999999999998</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.44190000000000002</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.45090000000000002</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.441</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.4405</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.443</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.44219999999999998</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4">
-        <v>0.1734</v>
+        <v>0.1845</v>
       </c>
       <c r="C17" s="4">
-        <v>0.15690000000000001</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="D17" s="4">
-        <v>0.15720000000000001</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="E17" s="4">
-        <v>0.15509999999999999</v>
+        <v>0.15629999999999999</v>
       </c>
       <c r="F17" s="4">
+        <v>0.1555</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="K17" s="4">
         <v>0.15479999999999999</v>
       </c>
-      <c r="G17" s="4">
-        <v>0.15440000000000001</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.1555</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.154</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.154</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.1542</v>
+      </c>
+      <c r="P17" s="4">
         <v>0.15409999999999999</v>
       </c>
-      <c r="L17" s="4">
-        <v>0.15459999999999999</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.15409999999999999</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0.15409999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4">
-        <v>0.1454</v>
+        <v>0.1686</v>
       </c>
       <c r="C18" s="4">
-        <v>7.1199999999999999E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>7.2700000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>0.13200000000000001</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="F18" s="4">
-        <v>7.1599999999999997E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="G18" s="4">
-        <v>8.0100000000000005E-2</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="H18" s="4">
-        <v>0.1522</v>
+        <v>0.16109999999999999</v>
       </c>
       <c r="I18" s="4">
-        <v>7.0499999999999993E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="J18" s="4">
-        <v>7.0400000000000004E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="K18" s="4">
-        <v>7.1099999999999997E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="L18" s="4">
-        <v>8.3400000000000002E-2</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="M18" s="4">
-        <v>7.0999999999999994E-2</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="N18" s="4">
-        <v>7.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.17E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="4">
-        <v>0.1394</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="C19" s="4">
         <v>1.37E-2</v>
       </c>
       <c r="D19" s="4">
-        <v>3.2099999999999997E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>0.1237</v>
+        <v>0.1527</v>
       </c>
       <c r="F19" s="4">
-        <v>1.43E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="G19" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="H19" s="4">
-        <v>0.1603</v>
+        <v>0.16739999999999999</v>
       </c>
       <c r="I19" s="4">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1.95E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.54E-2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1.44E-2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="P19" s="4">
         <v>1.47E-2</v>
       </c>
-      <c r="J19" s="4">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L19" s="4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1.38E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="4">
-        <v>0.11890000000000001</v>
+        <v>0.1444</v>
       </c>
       <c r="C20" s="4">
-        <v>2.1299999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>3.1300000000000001E-2</v>
+        <v>6.3899999999999998E-2</v>
       </c>
       <c r="E20" s="4">
-        <v>0.1119</v>
+        <v>0.1099</v>
       </c>
       <c r="F20" s="4">
-        <v>2.18E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="G20" s="4">
-        <v>3.8100000000000002E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="H20" s="4">
-        <v>0.13159999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I20" s="4">
-        <v>2.1700000000000001E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="J20" s="4">
-        <v>2.1700000000000001E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="K20" s="4">
-        <v>2.18E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="L20" s="4">
-        <v>3.7100000000000001E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M20" s="4">
-        <v>2.1700000000000001E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="N20" s="4">
-        <v>2.1899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="O20" s="4">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4">
-        <v>0.1178</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>8.3099999999999993E-2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2.07E-2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>3.4200000000000001E-2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.1042</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2.06E-2</v>
-      </c>
-      <c r="J21" s="4">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="K21" s="4">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="L21" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="M21" s="4">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="N21" s="4">
-        <v>2.06E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.15759999999999999</v>
-      </c>
-      <c r="C2" s="4">
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.1096</v>
-      </c>
-      <c r="F2" s="4">
-        <v>7.8200000000000006E-2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>9.6100000000000005E-2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.13139999999999999</v>
-      </c>
-      <c r="I2" s="4">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>7.8E-2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>7.8200000000000006E-2</v>
-      </c>
-      <c r="L2" s="4">
-        <v>8.3900000000000002E-2</v>
-      </c>
-      <c r="M2" s="4">
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="N2" s="4">
-        <v>7.9699999999999993E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.51519999999999999</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.71589999999999998</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.51659999999999995</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.59660000000000002</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.66759999999999997</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.52070000000000005</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.59160000000000001</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.52010000000000001</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.54169999999999996</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.51849999999999996</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.52849999999999997</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.52259999999999995</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0.52270000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.1656</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.18279999999999999</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6.4699999999999994E-2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.1012</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="I4" s="4">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.1071</v>
-      </c>
-      <c r="M4" s="4">
-        <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="N4" s="4">
-        <v>5.8599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.19550000000000001</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.1489</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.14660000000000001</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.1537</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.15459999999999999</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.15029999999999999</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.15570000000000001</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.1585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.2235</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.1681</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.21510000000000001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.1663</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.22070000000000001</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.1429</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.1618</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.1431</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.1583</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.1426</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0.1429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.17519999999999999</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.1278</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.1285</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.1188</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.1242</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.19620000000000001</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.1162</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.1177</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.1275</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.1212</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0.1157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.1201</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4.02E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>4.02E-2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="M8" s="4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.1234</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5.45E-2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5.4699999999999999E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5.3499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.1759</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4.2900000000000001E-2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.13120000000000001</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3.95E-2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.15110000000000001</v>
-      </c>
-      <c r="I10" s="4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K10" s="4">
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="L10" s="4">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="M10" s="4">
-        <v>4.1200000000000001E-2</v>
-      </c>
-      <c r="N10" s="4">
-        <v>4.1200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.1497</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>9.7699999999999995E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.1038</v>
-      </c>
-      <c r="H11" s="4">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="K11" s="4">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="L11" s="4">
-        <v>9.2899999999999996E-2</v>
-      </c>
-      <c r="M11" s="4">
-        <v>9.2899999999999996E-2</v>
-      </c>
-      <c r="N11" s="4">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.22409999999999999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.0299999999999996E-2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.23530000000000001</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.13830000000000001</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.19370000000000001</v>
-      </c>
-      <c r="I12" s="4">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.1137</v>
-      </c>
-      <c r="M12" s="4">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>5.33E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.18579999999999999</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.1512</v>
-      </c>
-      <c r="F13" s="4">
-        <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.1754</v>
-      </c>
-      <c r="I13" s="4">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="J13" s="4">
-        <v>5.45E-2</v>
-      </c>
-      <c r="K13" s="4">
-        <v>5.62E-2</v>
-      </c>
-      <c r="L13" s="4">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="M13" s="4">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="N13" s="4">
-        <v>5.4100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9.1200000000000003E-2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.16289999999999999</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8.9599999999999999E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.18459999999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>9.01E-2</v>
-      </c>
-      <c r="J14" s="4">
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="K14" s="4">
-        <v>8.9599999999999999E-2</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.111</v>
-      </c>
-      <c r="M14" s="4">
-        <v>9.11E-2</v>
-      </c>
-      <c r="N14" s="4">
-        <v>9.1200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.16039999999999999</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.13930000000000001</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5.6099999999999997E-2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.16389999999999999</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.29E-2</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1.11E-2</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1.06E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.4395</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.42549999999999999</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.4289</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.43919999999999998</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.4254</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.44319999999999998</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.42559999999999998</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.42509999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.42520000000000002</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.42809999999999998</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.4264</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.42659999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.1845</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.15759999999999999</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.15840000000000001</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.15629999999999999</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.1555</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.15459999999999999</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.15570000000000001</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.15490000000000001</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.15490000000000001</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.15479999999999999</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.15570000000000001</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.15490000000000001</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.1686</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.12770000000000001</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>9.0499999999999997E-2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.16109999999999999</v>
-      </c>
-      <c r="I18" s="4">
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="J18" s="4">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="K18" s="4">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="L18" s="4">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="M18" s="4">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="N18" s="4">
-        <v>5.1400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.17150000000000001</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1.37E-2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.1527</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.16739999999999999</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1.95E-2</v>
-      </c>
-      <c r="L19" s="4">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1.54E-2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.1444</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>6.3899999999999998E-2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.1099</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="I20" s="4">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="J20" s="4">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="L20" s="4">
-        <v>6.25E-2</v>
-      </c>
-      <c r="M20" s="4">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="N20" s="4">
-        <v>3.6200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4">
         <v>0.1394</v>
       </c>
       <c r="C21" s="4">
@@ -3347,6 +3730,12 @@
       </c>
       <c r="N21" s="4">
         <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2.1700000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3357,16 +3746,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B616062-F71C-1C4D-AE5F-CB3C29501456}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3409,8 +3800,14 @@
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3453,8 +3850,14 @@
       <c r="N2" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>8.9423891000000005E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.0623152000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -3497,8 +3900,14 @@
       <c r="N3" s="4">
         <v>0.53059999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.52625022499999996</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.52069242800000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -3541,8 +3950,14 @@
       <c r="N4" s="4">
         <v>6.2399999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>6.8764940999999996E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6.1923318999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3585,8 +4000,14 @@
       <c r="N5" s="4">
         <v>0.1595</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.15602079599999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.151787381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -3629,8 +4050,14 @@
       <c r="N6" s="4">
         <v>0.13850000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.15950320100000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.12885168999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3673,8 +4100,14 @@
       <c r="N7" s="4">
         <v>0.1167</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.122646591</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.11654115600000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -3717,8 +4150,14 @@
       <c r="N8" s="4">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>4.2388418999999997E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.9774179E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -3761,8 +4200,14 @@
       <c r="N9" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.5717636000000001E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.3708290999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -3805,8 +4250,14 @@
       <c r="N10" s="4">
         <v>4.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>7.8154396000000001E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>4.1655854999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -3849,8 +4300,14 @@
       <c r="N11" s="4">
         <v>9.3399999999999997E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>0.106254582</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.109549864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -3893,8 +4350,14 @@
       <c r="N12" s="4">
         <v>5.2200000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>7.7605080000000007E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>5.5946172000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -3937,8 +4400,14 @@
       <c r="N13" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>8.0027650000000006E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.5259020999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3981,8 +4450,14 @@
       <c r="N14" s="4">
         <v>9.1300000000000006E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.118400771</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.100374E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4025,8 +4500,14 @@
       <c r="N15" s="4">
         <v>1.38E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>7.2519759000000003E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1.6436804999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -4069,8 +4550,14 @@
       <c r="N16" s="4">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.44335850599999999</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.44083251699999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4113,8 +4600,14 @@
       <c r="N17" s="4">
         <v>0.15409999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.154369374</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.15449006400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -4157,8 +4650,14 @@
       <c r="N18" s="4">
         <v>7.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>9.6514943000000006E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.1615083999999996E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -4201,8 +4700,14 @@
       <c r="N19" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>7.5200902999999999E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.7238045E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -4245,8 +4750,14 @@
       <c r="N20" s="4">
         <v>2.52E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>5.3862553000000001E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.3843039E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -4288,6 +4799,12 @@
       </c>
       <c r="N21" s="4">
         <v>2.12E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>5.7525732000000003E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2.2402267999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4297,16 +4814,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7904E6-97A6-0F41-AAE2-E4EAEE969584}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4349,8 +4868,14 @@
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -4393,8 +4918,14 @@
       <c r="N2" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.10541948800000001</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.4347542999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4437,8 +4968,14 @@
       <c r="N3" s="4">
         <v>0.56530000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.52618012999999997</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.53787224099999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4481,8 +5018,14 @@
       <c r="N4" s="4">
         <v>5.9299999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>6.6637725999999994E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6.3038028999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4525,8 +5068,14 @@
       <c r="N5" s="4">
         <v>0.16170000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.15932094399999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.15215684700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4569,8 +5118,14 @@
       <c r="N6" s="4">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.16929118300000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.12993389999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -4613,8 +5168,14 @@
       <c r="N7" s="4">
         <v>0.11990000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.12668509999999999</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.119620957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -4657,8 +5218,14 @@
       <c r="N8" s="4">
         <v>4.02E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>4.2984714E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.9897711000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -4701,8 +5268,14 @@
       <c r="N9" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.6453103999999997E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.3769940000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4745,8 +5318,14 @@
       <c r="N10" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>9.2578194000000003E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>4.2056214000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -4789,8 +5368,14 @@
       <c r="N11" s="4">
         <v>9.5399999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>9.428947E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>9.1791160999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -4833,8 +5418,14 @@
       <c r="N12" s="4">
         <v>9.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>0.10131960299999999</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.10010778400000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -4877,8 +5468,14 @@
       <c r="N13" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>9.2826466999999996E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.6058508E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -4921,8 +5518,14 @@
       <c r="N14" s="4">
         <v>9.1200000000000003E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.13248439200000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.0542705000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4965,8 +5568,14 @@
       <c r="N15" s="4">
         <v>2.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>9.1957857000000004E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1.9596517000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -5009,8 +5618,14 @@
       <c r="N16" s="4">
         <v>0.44219999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.44563862300000001</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.44124910000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5053,8 +5668,14 @@
       <c r="N17" s="4">
         <v>0.1545</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.15462015400000001</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.15488243500000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -5097,8 +5718,14 @@
       <c r="N18" s="4">
         <v>7.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>9.7151524000000003E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.1885139000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -5141,8 +5768,14 @@
       <c r="N19" s="4">
         <v>1.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>8.6642995E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2.3345938E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -5185,8 +5818,14 @@
       <c r="N20" s="4">
         <v>2.5100000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>6.2842752000000002E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.2744884E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -5228,6 +5867,12 @@
       </c>
       <c r="N21" s="4">
         <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>6.5467682999999999E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2.2310417999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5237,16 +5882,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36056FE-6067-5948-901D-DEEABB498895}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5289,8 +5936,14 @@
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -5333,8 +5986,14 @@
       <c r="N2" s="4">
         <v>8.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.100153362</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.3168809999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -5377,8 +6036,14 @@
       <c r="N3" s="4">
         <v>0.5252</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.528315537</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.57769877400000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -5421,8 +6086,14 @@
       <c r="N4" s="4">
         <v>6.6500000000000004E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>8.8361324000000005E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>7.3072015000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5465,8 +6136,14 @@
       <c r="N5" s="4">
         <v>0.16270000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.16335673000000001</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.15148394300000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5509,8 +6186,14 @@
       <c r="N6" s="4">
         <v>0.1368</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.17849238000000001</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.13274039000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -5553,8 +6236,14 @@
       <c r="N7" s="4">
         <v>0.11940000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.128009285</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.120056788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -5597,8 +6286,14 @@
       <c r="N8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>4.4356620999999999E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.9870926000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -5641,8 +6336,14 @@
       <c r="N9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.7040311000000003E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.366862E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5685,8 +6386,14 @@
       <c r="N10" s="4">
         <v>4.5900000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.10854280500000001</v>
+      </c>
+      <c r="P10" s="4">
+        <v>4.4206644000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -5729,8 +6436,14 @@
       <c r="N11" s="4">
         <v>9.4200000000000006E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>9.5104767000000007E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>9.2478828999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -5773,8 +6486,14 @@
       <c r="N12" s="4">
         <v>6.2399999999999997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>9.8837671000000002E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>6.7860587999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -5817,8 +6536,14 @@
       <c r="N13" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>0.110076175</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.7167607000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -5861,8 +6586,14 @@
       <c r="N14" s="4">
         <v>9.11E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.14606311699999999</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.0830601999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5905,8 +6636,14 @@
       <c r="N15" s="4">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>9.8474825000000002E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2.3892584000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -5949,8 +6686,14 @@
       <c r="N16" s="4">
         <v>0.45710000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.44797823799999997</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.44214483199999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5993,8 +6736,14 @@
       <c r="N17" s="4">
         <v>0.1545</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.15505406399999999</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.15525478500000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -6037,8 +6786,14 @@
       <c r="N18" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>0.101699464</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.2803043999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -6081,8 +6836,14 @@
       <c r="N19" s="4">
         <v>1.78E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>0.10130953600000001</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2.4595427999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -6125,8 +6886,14 @@
       <c r="N20" s="4">
         <v>2.41E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>6.9822567000000002E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.5116679999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -6168,6 +6935,12 @@
       </c>
       <c r="N21" s="4">
         <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>8.046412E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>3.1640793E-2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/RMSE_ELM_git.xlsx
+++ b/docs/RMSE_ELM_git.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Desktop/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Documents/Git_repositorios/regressandnoise/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1B3D21-7D54-6744-BB9F-C8CCA955EE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF502E1E-B80F-D848-9EEC-849336C95E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5420" yWindow="-18860" windowWidth="35900" windowHeight="16380" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="36">
   <si>
     <t>Dataset</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>GE</t>
-  </si>
-  <si>
-    <t>HARF</t>
   </si>
   <si>
     <t>IPF</t>
@@ -559,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -577,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -589,24 +586,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.1125</v>
@@ -656,7 +653,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.51870000000000005</v>
@@ -706,7 +703,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.1047</v>
@@ -756,7 +753,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.16719999999999999</v>
@@ -806,7 +803,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.17199999999999999</v>
@@ -856,7 +853,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.128</v>
@@ -906,7 +903,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>7.2999999999999995E-2</v>
@@ -956,7 +953,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>8.2400000000000001E-2</v>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.1091</v>
@@ -1056,7 +1053,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1203</v>
@@ -1106,7 +1103,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.13769999999999999</v>
@@ -1156,7 +1153,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.1196</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.13969999999999999</v>
@@ -1256,7 +1253,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>8.7099999999999997E-2</v>
@@ -1306,7 +1303,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.44059999999999999</v>
@@ -1356,7 +1353,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.16389999999999999</v>
@@ -1406,7 +1403,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.1091</v>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>9.6000000000000002E-2</v>
@@ -1506,7 +1503,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>8.5300000000000001E-2</v>
@@ -1556,7 +1553,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>8.6199999999999999E-2</v>
@@ -1614,7 +1611,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1627,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1645,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -1657,24 +1654,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.1338</v>
@@ -1724,7 +1721,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.51939999999999997</v>
@@ -1774,7 +1771,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.1709</v>
@@ -1824,7 +1821,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.18110000000000001</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.1983</v>
@@ -1924,7 +1921,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.1613</v>
@@ -1974,7 +1971,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>9.6199999999999994E-2</v>
@@ -2024,7 +2021,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.10829999999999999</v>
@@ -2074,7 +2071,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.14979999999999999</v>
@@ -2124,7 +2121,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.13980000000000001</v>
@@ -2174,7 +2171,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.1948</v>
@@ -2224,7 +2221,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.1517</v>
@@ -2274,7 +2271,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.17399999999999999</v>
@@ -2324,7 +2321,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.1368</v>
@@ -2374,7 +2371,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.44080000000000003</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.1734</v>
@@ -2474,7 +2471,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.1454</v>
@@ -2524,7 +2521,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.1394</v>
@@ -2574,7 +2571,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.11890000000000001</v>
@@ -2624,7 +2621,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.1178</v>
@@ -2681,7 +2678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2693,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2711,7 +2710,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -2723,24 +2722,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.15759999999999999</v>
@@ -2790,7 +2789,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.51519999999999999</v>
@@ -2840,7 +2839,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.1656</v>
@@ -2890,7 +2889,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.19550000000000001</v>
@@ -2940,7 +2939,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.2235</v>
@@ -2990,7 +2989,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.17519999999999999</v>
@@ -3040,7 +3039,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.1201</v>
@@ -3090,7 +3089,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.1234</v>
@@ -3140,7 +3139,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.1759</v>
@@ -3190,7 +3189,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1497</v>
@@ -3240,7 +3239,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.22409999999999999</v>
@@ -3290,7 +3289,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.18579999999999999</v>
@@ -3340,7 +3339,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.20250000000000001</v>
@@ -3390,7 +3389,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.16039999999999999</v>
@@ -3440,7 +3439,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.4395</v>
@@ -3490,7 +3489,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.1845</v>
@@ -3540,7 +3539,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.1686</v>
@@ -3590,7 +3589,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.17150000000000001</v>
@@ -3640,7 +3639,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.1444</v>
@@ -3690,7 +3689,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.1394</v>
@@ -3749,7 +3748,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3762,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3780,7 +3779,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -3792,24 +3791,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.16569999999999999</v>
@@ -3859,7 +3858,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.51400000000000001</v>
@@ -3909,7 +3908,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.23730000000000001</v>
@@ -3959,7 +3958,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.20610000000000001</v>
@@ -4009,7 +4008,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.24349999999999999</v>
@@ -4059,7 +4058,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.1845</v>
@@ -4109,7 +4108,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.13769999999999999</v>
@@ -4159,7 +4158,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.1394</v>
@@ -4209,7 +4208,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.20050000000000001</v>
@@ -4259,7 +4258,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1681</v>
@@ -4309,7 +4308,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.29310000000000003</v>
@@ -4359,7 +4358,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.2011</v>
@@ -4409,7 +4408,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.2238</v>
@@ -4459,7 +4458,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.17799999999999999</v>
@@ -4509,7 +4508,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.43909999999999999</v>
@@ -4559,7 +4558,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.19259999999999999</v>
@@ -4609,7 +4608,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.1769</v>
@@ -4659,7 +4658,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.18759999999999999</v>
@@ -4709,7 +4708,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.14910000000000001</v>
@@ -4759,7 +4758,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.15820000000000001</v>
@@ -4817,7 +4816,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4830,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -4848,7 +4847,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -4860,24 +4859,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.19109999999999999</v>
@@ -4927,7 +4926,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.5101</v>
@@ -4977,7 +4976,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.25159999999999999</v>
@@ -5027,7 +5026,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.2172</v>
@@ -5077,7 +5076,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.2576</v>
@@ -5127,7 +5126,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.19719999999999999</v>
@@ -5177,7 +5176,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.15060000000000001</v>
@@ -5227,7 +5226,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.15490000000000001</v>
@@ -5277,7 +5276,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.22059999999999999</v>
@@ -5327,7 +5326,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.17330000000000001</v>
@@ -5377,7 +5376,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.28220000000000001</v>
@@ -5427,7 +5426,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.2243</v>
@@ -5477,7 +5476,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.24210000000000001</v>
@@ -5527,7 +5526,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.19550000000000001</v>
@@ -5577,7 +5576,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.439</v>
@@ -5627,7 +5626,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.2001</v>
@@ -5677,7 +5676,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.18559999999999999</v>
@@ -5727,7 +5726,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.1973</v>
@@ -5777,7 +5776,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.17369999999999999</v>
@@ -5827,7 +5826,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.17879999999999999</v>
@@ -5885,7 +5884,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5898,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -5916,7 +5915,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -5928,24 +5927,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.19769999999999999</v>
@@ -5995,7 +5994,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.51139999999999997</v>
@@ -6045,7 +6044,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.24979999999999999</v>
@@ -6095,7 +6094,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.22600000000000001</v>
@@ -6145,7 +6144,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.27350000000000002</v>
@@ -6195,7 +6194,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.19989999999999999</v>
@@ -6245,7 +6244,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.16259999999999999</v>
@@ -6295,7 +6294,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.1678</v>
@@ -6345,7 +6344,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.23649999999999999</v>
@@ -6395,7 +6394,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.18049999999999999</v>
@@ -6445,7 +6444,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.5383</v>
@@ -6495,7 +6494,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.24660000000000001</v>
@@ -6545,7 +6544,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.25430000000000003</v>
@@ -6595,7 +6594,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.20660000000000001</v>
@@ -6645,7 +6644,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.43580000000000002</v>
@@ -6695,7 +6694,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.2084</v>
@@ -6745,7 +6744,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.19209999999999999</v>
@@ -6795,7 +6794,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.21149999999999999</v>
@@ -6845,7 +6844,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.20619999999999999</v>
@@ -6895,7 +6894,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.19489999999999999</v>

--- a/docs/RMSE_ELM_git.xlsx
+++ b/docs/RMSE_ELM_git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Documents/Git_repositorios/regressandnoise/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF502E1E-B80F-D848-9EEC-849336C95E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB59AA-DDEC-2941-A060-2A920B09519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5420" yWindow="-18860" windowWidth="35900" windowHeight="16380" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
   </bookViews>
@@ -21,12 +21,12 @@
     <sheet name="30% of noise" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'%5 of noise'!$A$1:$M$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10% of noise'!$A$1:$M$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'15% of noise'!$A$1:$M$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20% of noise'!$A$1:$P$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25% of noise'!$A$1:$M$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'30% of noise'!$A$1:$M$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'%5 of noise'!$A$1:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10% of noise'!$A$1:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'15% of noise'!$A$1:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20% of noise'!$A$1:$Q$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25% of noise'!$A$1:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'30% of noise'!$A$1:$O$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -548,7 +548,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -565,40 +565,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -615,40 +615,40 @@
         <v>8.2600000000000007E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>9.7699999999999995E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.14E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>9.2700000000000005E-2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.09E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.1100000000000005E-2</v>
-      </c>
-      <c r="L2" s="4">
-        <v>8.1699999999999995E-2</v>
       </c>
       <c r="M2" s="4">
         <v>8.1100000000000005E-2</v>
       </c>
       <c r="N2" s="4">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="P2" s="4">
         <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.1100000000000005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -665,40 +665,40 @@
         <v>0.51780000000000004</v>
       </c>
       <c r="E3" s="4">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.55249999999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.53520000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.51939999999999997</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.54200000000000004</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.52580000000000005</v>
       </c>
       <c r="J3" s="4">
         <v>0.52580000000000005</v>
       </c>
       <c r="K3" s="4">
+        <v>0.52580000000000005</v>
+      </c>
+      <c r="L3" s="4">
         <v>0.52749999999999997</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.52190000000000003</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.53380000000000005</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.53039999999999998</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.51959999999999995</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.54339999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -715,40 +715,40 @@
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.255</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.10970000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>5.33E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>5.33E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -765,40 +765,40 @@
         <v>0.1547</v>
       </c>
       <c r="E5" s="4">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.16619999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.15090000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.1507</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.1827</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.1547</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.15160000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.15129999999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.15060000000000001</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.15890000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1573</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.15060000000000001</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.15140000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -815,40 +815,40 @@
         <v>0.1469</v>
       </c>
       <c r="E6" s="4">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.15759999999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0.1343</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.14119999999999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.1464</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.1336</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.1409</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.13070000000000001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>0.1368</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>0.13689999999999999</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.14180000000000001</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0.13730000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -865,40 +865,40 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="E7" s="4">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.13420000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.11559999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.11459999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.11940000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1149</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.114</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1143</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.1145</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1164</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.11849999999999999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.11609999999999999</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.11409999999999999</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.1145</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -915,19 +915,19 @@
         <v>4.0399999999999998E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.58E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>4.53E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3.9600000000000003E-2</v>
       </c>
       <c r="J8" s="4">
         <v>3.9600000000000003E-2</v>
@@ -936,19 +936,19 @@
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="L8" s="4">
-        <v>0.04</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="M8" s="4">
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="N8" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="O8" s="4">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="P8" s="4">
         <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.9600000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -965,40 +965,40 @@
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.3600000000000002E-2</v>
       </c>
       <c r="K9" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
       <c r="L9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.3800000000000001E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.3600000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1015,40 +1015,40 @@
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>4.53E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.1066</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>4.1200000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1065,40 +1065,40 @@
         <v>0.1062</v>
       </c>
       <c r="E11" s="4">
+        <v>0.1014</v>
+      </c>
+      <c r="F11" s="4">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>0.1024</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1009</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>0.1003</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.10299999999999999</v>
       </c>
       <c r="K11" s="4">
         <v>0.10299999999999999</v>
       </c>
       <c r="L11" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.1014</v>
+      </c>
+      <c r="N11" s="4">
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>0.1004</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.1014</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0.1014</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1115,40 +1115,40 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.25779999999999997</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.25969999999999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>5.2699999999999997E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>4.9799999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1165,40 +1165,40 @@
         <v>5.74E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>5.79E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.1183</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.1099</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.57E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5.79E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.57E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1215,40 +1215,40 @@
         <v>9.1200000000000003E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.1249</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.13969999999999999</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>0.09</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.0300000000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1265,40 +1265,40 @@
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.15970000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.17660000000000001</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="N15" s="4">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>8.6E-3</v>
-      </c>
-      <c r="O15" s="4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1315,40 +1315,40 @@
         <v>0.44640000000000002</v>
       </c>
       <c r="E16" s="4">
+        <v>0.44090000000000001</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.4521</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.44069999999999998</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.44119999999999998</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.45279999999999998</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.44169999999999998</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.4405</v>
       </c>
       <c r="K16" s="4">
         <v>0.4405</v>
       </c>
       <c r="L16" s="4">
+        <v>0.4405</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.442</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.44190000000000002</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.44219999999999998</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.44090000000000001</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.44059999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1365,40 +1365,40 @@
         <v>0.15720000000000001</v>
       </c>
       <c r="E17" s="4">
-        <v>0.15440000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="F17" s="4">
         <v>0.15440000000000001</v>
       </c>
       <c r="G17" s="4">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="H17" s="4">
         <v>0.1542</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.15490000000000001</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.15409999999999999</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.154</v>
       </c>
       <c r="K17" s="4">
         <v>0.154</v>
       </c>
       <c r="L17" s="4">
-        <v>0.1542</v>
+        <v>0.154</v>
       </c>
       <c r="M17" s="4">
         <v>0.154</v>
       </c>
       <c r="N17" s="4">
-        <v>0.15409999999999999</v>
+        <v>0.1542</v>
       </c>
       <c r="O17" s="4">
         <v>0.154</v>
       </c>
       <c r="P17" s="4">
-        <v>0.154</v>
+        <v>0.15409999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1415,40 +1415,40 @@
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.14030000000000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.1265</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="J18" s="4">
-        <v>7.0099999999999996E-2</v>
       </c>
       <c r="K18" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
       <c r="L18" s="4">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.0199999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1465,37 +1465,37 @@
         <v>0.02</v>
       </c>
       <c r="E19" s="4">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.1195</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.1638</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1.35E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>2.86E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>1.35E-2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2.7799999999999998E-2</v>
       </c>
       <c r="P19" s="4">
         <v>1.3299999999999999E-2</v>
@@ -1515,19 +1515,19 @@
         <v>2.4400000000000002E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.12E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2.12E-2</v>
       </c>
       <c r="J20" s="4">
         <v>2.12E-2</v>
@@ -1536,16 +1536,16 @@
         <v>2.12E-2</v>
       </c>
       <c r="L20" s="4">
+        <v>2.12E-2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2.12E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="N20" s="4">
-        <v>2.12E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2.6200000000000001E-2</v>
       </c>
       <c r="P20" s="4">
         <v>2.12E-2</v>
@@ -1565,37 +1565,37 @@
         <v>2.75E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>2.06E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>2.64E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="L21" s="4">
-        <v>2.8400000000000002E-2</v>
       </c>
       <c r="M21" s="4">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="N21" s="4">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="O21" s="4">
         <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>2.4500000000000001E-2</v>
       </c>
       <c r="P21" s="4">
         <v>2.0299999999999999E-2</v>
@@ -1610,13 +1610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5330-79EB-964D-9D40-2E0A1E2E0875}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1633,40 +1631,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1683,40 +1681,40 @@
         <v>8.8800000000000004E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.10489999999999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.10489999999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.09E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>8.43E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.4900000000000003E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.3500000000000005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1733,40 +1731,40 @@
         <v>0.52010000000000001</v>
       </c>
       <c r="E3" s="4">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.54710000000000003</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.53080000000000005</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.51890000000000003</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.54710000000000003</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.52480000000000004</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.52290000000000003</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.52459999999999996</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.52180000000000004</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.53139999999999998</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.5292</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.51990000000000003</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.52559999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1783,40 +1781,40 @@
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.27650000000000002</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.10829999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.1179</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>5.7799999999999997E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>5.9299999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1833,40 +1831,40 @@
         <v>0.15629999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.1515</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.1678</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.15160000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.1517</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.17580000000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.15529999999999999</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.1512</v>
       </c>
       <c r="K5" s="4">
         <v>0.1512</v>
       </c>
       <c r="L5" s="4">
+        <v>0.1512</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.1515</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.15179999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.159</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.15679999999999999</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.1515</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.1515</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1883,40 +1881,40 @@
         <v>0.1464</v>
       </c>
       <c r="E6" s="4">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.18</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0.13450000000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.14419999999999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.19350000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.14480000000000001</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.13370000000000001</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.13930000000000001</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>0.1371</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.1358</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>0.1447</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>0.1457</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.13880000000000001</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0.1371</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1933,40 +1931,40 @@
         <v>0.12640000000000001</v>
       </c>
       <c r="E7" s="4">
+        <v>0.1174</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.13850000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1168</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.11890000000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.13850000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1153</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.11459999999999999</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1144</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.1152</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1191</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1158</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.1174</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.1152</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1983,19 +1981,19 @@
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3.9699999999999999E-2</v>
       </c>
       <c r="J8" s="4">
         <v>3.9699999999999999E-2</v>
@@ -2004,16 +2002,16 @@
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="L8" s="4">
-        <v>4.02E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="M8" s="4">
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="N8" s="4">
+        <v>4.02E-2</v>
+      </c>
+      <c r="O8" s="4">
         <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.0300000000000002E-2</v>
       </c>
       <c r="P8" s="4">
         <v>3.9699999999999999E-2</v>
@@ -2033,40 +2031,40 @@
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.3600000000000002E-2</v>
       </c>
       <c r="K9" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
       <c r="L9" s="4">
-        <v>5.4399999999999997E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="M9" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
       <c r="N9" s="4">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="P9" s="4">
         <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.3600000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -2083,40 +2081,40 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.1133</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.13339999999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.19E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>5.2299999999999999E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>4.1300000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -2133,40 +2131,40 @@
         <v>0.10630000000000001</v>
       </c>
       <c r="E11" s="4">
+        <v>0.1069</v>
+      </c>
+      <c r="F11" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>0.10390000000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>9.64E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>0.1017</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>0.105</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>0.1037</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>0.104</v>
+      </c>
+      <c r="N11" s="4">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.1069</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0.104</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -2183,40 +2181,40 @@
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.21229999999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>5.16E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.1212</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.25969999999999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>5.1400000000000001E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5.11E-2</v>
       </c>
       <c r="K12" s="4">
         <v>5.11E-2</v>
       </c>
       <c r="L12" s="4">
+        <v>5.11E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>5.11E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>5.0799999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -2233,40 +2231,40 @@
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.12189999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>6.83E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.14610000000000001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>7.22E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.5E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -2283,40 +2281,40 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.17979999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>9.11E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.1</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.19620000000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>0.09</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>9.7699999999999995E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.0200000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -2333,40 +2331,40 @@
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.13250000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.20349999999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="N15" s="4">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="O15" s="4">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2383,40 +2381,40 @@
         <v>0.44469999999999998</v>
       </c>
       <c r="E16" s="4">
+        <v>0.44130000000000003</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.45090000000000002</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.44069999999999998</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.44190000000000002</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.45090000000000002</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.441</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.44059999999999999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.4405</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.443</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.44219999999999998</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.442</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.44130000000000003</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.44059999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -2433,40 +2431,40 @@
         <v>0.15720000000000001</v>
       </c>
       <c r="E17" s="4">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.15509999999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.15479999999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.15440000000000001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.1555</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.154</v>
       </c>
       <c r="J17" s="4">
         <v>0.154</v>
       </c>
       <c r="K17" s="4">
+        <v>0.154</v>
+      </c>
+      <c r="L17" s="4">
         <v>0.15409999999999999</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.154</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.15459999999999999</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.15409999999999999</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0.15409999999999999</v>
       </c>
       <c r="O17" s="4">
         <v>0.15409999999999999</v>
       </c>
       <c r="P17" s="4">
-        <v>0.154</v>
+        <v>0.15409999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -2483,40 +2481,40 @@
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>8.09E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.1522</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>7.0300000000000001E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>8.09E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.0499999999999993E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -2533,40 +2531,40 @@
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.1237</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1.43E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.1603</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1.47E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.38E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1.3899999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -2583,40 +2581,40 @@
         <v>3.1300000000000001E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.1119</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.18E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.13159999999999999</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2.1700000000000001E-2</v>
       </c>
       <c r="J20" s="4">
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="K20" s="4">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="L20" s="4">
         <v>2.18E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.1499999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -2633,40 +2631,40 @@
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>2.07E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.1042</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>2.06E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="L21" s="4">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="M21" s="4">
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="N21" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="P21" s="4">
         <v>2.06E-2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>2.0500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2678,13 +2676,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -2701,40 +2697,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2751,40 +2747,40 @@
         <v>8.0100000000000005E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.1096</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.13139999999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="O2" s="4">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.3900000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -2801,40 +2797,40 @@
         <v>0.51659999999999995</v>
       </c>
       <c r="E3" s="4">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.59660000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.66759999999999997</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.52070000000000005</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.59160000000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.52010000000000001</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.54169999999999996</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.51849999999999996</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.53049999999999997</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.52849999999999997</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.52259999999999995</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.52270000000000005</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.52310000000000001</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.53049999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2851,40 +2847,40 @@
         <v>7.7799999999999994E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.18279999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.1012</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.29199999999999998</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.1071</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>5.8599999999999999E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>5.6399999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2901,40 +2897,40 @@
         <v>0.1489</v>
       </c>
       <c r="E5" s="4">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.18099999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.14660000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.1537</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.15459999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.15029999999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.14749999999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.15329999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.15570000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1585</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.15359999999999999</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.15190000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -2951,40 +2947,40 @@
         <v>0.1681</v>
       </c>
       <c r="E6" s="4">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.21510000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0.1663</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.14810000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.22070000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.1429</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.1618</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.1431</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.1583</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>0.1426</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>0.1429</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.15240000000000001</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0.12870000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3001,40 +2997,40 @@
         <v>0.1285</v>
       </c>
       <c r="E7" s="4">
+        <v>0.1212</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.15</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1188</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.1242</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.19620000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1162</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1177</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.1166</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1275</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.1212</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0.1157</v>
       </c>
       <c r="O7" s="4">
         <v>0.1212</v>
       </c>
       <c r="P7" s="4">
-        <v>0.1166</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3051,40 +3047,40 @@
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>4.02E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.9800000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3101,40 +3097,40 @@
         <v>5.45E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.45E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.3400000000000003E-2</v>
       </c>
       <c r="K9" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="L9" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.45E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.3600000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -3151,40 +3147,40 @@
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.13120000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>3.95E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.15110000000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.1200000000000001E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>4.1500000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -3201,40 +3197,40 @@
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="F11" s="4">
         <v>9.7699999999999995E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1038</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>9.1899999999999996E-2</v>
       </c>
       <c r="K11" s="4">
         <v>9.1899999999999996E-2</v>
       </c>
       <c r="L11" s="4">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.1057</v>
+      </c>
+      <c r="N11" s="4">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.10150000000000001</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0.1057</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3251,40 +3247,40 @@
         <v>8.0299999999999996E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>0.1036</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.23530000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.13830000000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.19370000000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>0.104</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.1137</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>5.33E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.1036</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0.104</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -3301,40 +3297,40 @@
         <v>6.4500000000000002E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.1512</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.1754</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.45E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.62E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.62E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.62E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -3351,40 +3347,40 @@
         <v>9.1800000000000007E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>0.1067</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.16289999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.10920000000000001</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.18459999999999999</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>9.01E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.111</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.11E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.1200000000000003E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.1067</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.0200000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -3401,40 +3397,40 @@
         <v>5.0700000000000002E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.13930000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.16389999999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>1.29E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>1.11E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>1.06E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -3451,40 +3447,40 @@
         <v>0.4289</v>
       </c>
       <c r="E16" s="4">
+        <v>0.442</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.43919999999999998</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.4254</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.44319999999999998</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.45400000000000001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.42559999999999998</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.42509999999999998</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.42520000000000002</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.42809999999999998</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.4264</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.42659999999999998</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.442</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.44080000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -3501,40 +3497,40 @@
         <v>0.15840000000000001</v>
       </c>
       <c r="E17" s="4">
+        <v>0.1542</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.15629999999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.1555</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.15459999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.15570000000000001</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.15490000000000001</v>
       </c>
       <c r="J17" s="4">
         <v>0.15490000000000001</v>
       </c>
       <c r="K17" s="4">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="L17" s="4">
         <v>0.15479999999999999</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.15570000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.15490000000000001</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.155</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.1542</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.15409999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -3551,40 +3547,40 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.12770000000000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.16109999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.17E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>5.1400000000000001E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.17E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -3601,40 +3597,40 @@
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.1527</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.16739999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>1.95E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>1.47E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>1.54E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.44E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1.47E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -3651,40 +3647,40 @@
         <v>6.3899999999999998E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.1099</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.15</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.4E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -3701,40 +3697,40 @@
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.1217</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>2.23E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>4.53E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.112</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>2.24E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>2.1700000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3747,13 +3743,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B616062-F71C-1C4D-AE5F-CB3C29501456}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -3770,40 +3764,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3820,40 +3814,40 @@
         <v>8.1100000000000005E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>8.9423891000000005E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>8.9099999999999999E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>8.1500000000000003E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.0623152000000003E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.09E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.2600000000000007E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>8.9423891000000005E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.0623152000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3870,40 +3864,40 @@
         <v>0.52080000000000004</v>
       </c>
       <c r="E3" s="4">
+        <v>0.52625022499999996</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.55740000000000001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.52800000000000002</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.51929999999999998</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.55740000000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.52729999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.53649999999999998</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.52390000000000003</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.52069242800000004</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.5262</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.53149999999999997</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.53059999999999996</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.52625022499999996</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.52069242800000004</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3920,40 +3914,40 @@
         <v>9.2899999999999996E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>6.8764940999999996E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.2152</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.1419</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.27150000000000002</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>6.1923318999999998E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.1724</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6.8764940999999996E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>6.1923318999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3970,40 +3964,40 @@
         <v>0.155</v>
       </c>
       <c r="E5" s="4">
+        <v>0.15602079599999999</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.1797</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.151</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.15579999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.18160000000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.1578</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.15179999999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.15160000000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.151787381</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.15670000000000001</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.15859999999999999</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1595</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.15602079599999999</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.151787381</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -4020,40 +4014,40 @@
         <v>0.1699</v>
       </c>
       <c r="E6" s="4">
+        <v>0.15950320100000001</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.20130000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0.1321</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.1613</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.22620000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.14030000000000001</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.1326</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.13869999999999999</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>0.12885168999999999</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.15740000000000001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>0.14369999999999999</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>0.13850000000000001</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.15950320100000001</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0.12885168999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -4070,40 +4064,40 @@
         <v>0.13589999999999999</v>
       </c>
       <c r="E7" s="4">
+        <v>0.122646591</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.1933</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.12709999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.1933</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1172</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1148</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.11650000000000001</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.11654115600000001</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1323</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1182</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1167</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.122646591</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.11654115600000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4120,40 +4114,40 @@
         <v>4.1099999999999998E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.2388418999999997E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>0.04</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>0.04</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>3.9774179E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>0.04</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.2388418999999997E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.9774179E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4170,40 +4164,40 @@
         <v>5.4899999999999997E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.5717636000000001E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.57E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.3708290999999998E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.3800000000000001E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.5717636000000001E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.3708290999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4220,40 +4214,40 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="4">
+        <v>7.8154396000000001E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.1532</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.1729</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>4.1655854999999999E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>7.8154396000000001E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>4.1655854999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4270,40 +4264,40 @@
         <v>0.10589999999999999</v>
       </c>
       <c r="E11" s="4">
+        <v>0.106254582</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.1052</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>0.10829999999999999</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.10730000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>0.1012</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>0.1057</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>0.1051</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>0.109549864</v>
+      </c>
+      <c r="N11" s="4">
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.2700000000000005E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.106254582</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0.109549864</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4320,40 +4314,40 @@
         <v>9.8599999999999993E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>7.7605080000000007E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.2442</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.19639999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.2442</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>5.5946172000000002E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.1588</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.28E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>7.7605080000000007E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>5.5946172000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4370,40 +4364,40 @@
         <v>6.5799999999999997E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>8.0027650000000006E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.1615</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.18190000000000001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.45E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.5259020999999998E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>8.0027650000000006E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.5259020999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4420,40 +4414,40 @@
         <v>9.6299999999999997E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>0.118400771</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.17799999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.1222</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.1973</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>0.09</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.100374E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.1226</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.118400771</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.100374E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4470,40 +4464,40 @@
         <v>5.5800000000000002E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>7.2519759000000003E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.14460000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.17280000000000001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.67E-2</v>
       </c>
       <c r="J15" s="4">
         <v>1.67E-2</v>
       </c>
       <c r="K15" s="4">
+        <v>1.67E-2</v>
+      </c>
+      <c r="L15" s="4">
         <v>2.18E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>1.6436804999999999E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>1.38E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>7.2519759000000003E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1.6436804999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4520,40 +4514,40 @@
         <v>0.44330000000000003</v>
       </c>
       <c r="E16" s="4">
+        <v>0.44335850599999999</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.4572</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.4415</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.44500000000000001</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.4572</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.441</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.44090000000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.44109999999999999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.44083251699999998</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.44719999999999999</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.44190000000000002</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.442</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.44335850599999999</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.44083251699999998</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4570,40 +4564,40 @@
         <v>0.15790000000000001</v>
       </c>
       <c r="E17" s="4">
+        <v>0.154369374</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.15590000000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.1555</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.15509999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.15629999999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.15409999999999999</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.1542</v>
       </c>
       <c r="K17" s="4">
         <v>0.1542</v>
       </c>
       <c r="L17" s="4">
+        <v>0.1542</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.15449006400000001</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.15540000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.15409999999999999</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.15409999999999999</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.154369374</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.15449006400000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4620,40 +4614,40 @@
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>9.6514943000000006E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.1489</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.16589999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.1615083999999996E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.1007</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>7.3599999999999999E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>9.6514943000000006E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.1615083999999996E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4670,40 +4664,40 @@
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>7.5200902999999999E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.15290000000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.17860000000000001</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>1.7238045E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>7.5200902999999999E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1.7238045E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4720,40 +4714,40 @@
         <v>3.8800000000000001E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>5.3862553000000001E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.53E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.1125</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>2.46E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.3843039E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2.52E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>5.3862553000000001E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.3843039E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4770,40 +4764,40 @@
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>5.7525732000000003E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.1081</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>0.06</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.11550000000000001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>2.63E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>2.2402267999999999E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>2.12E-2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>5.7525732000000003E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>2.2402267999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4815,13 +4809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7904E6-97A6-0F41-AAE2-E4EAEE969584}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -4838,40 +4830,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -4888,40 +4880,40 @@
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>0.10541948800000001</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.12520000000000001</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.11070000000000001</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.1273</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.4347542999999997E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.1019</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.10541948800000001</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.4347542999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -4938,40 +4930,40 @@
         <v>0.5232</v>
       </c>
       <c r="E3" s="4">
+        <v>0.52618012999999997</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.55159999999999998</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.5796</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.53939999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.55159999999999998</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.56510000000000005</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.54200000000000004</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.54279999999999995</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.53787224099999997</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.63080000000000003</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.55189999999999995</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.56530000000000002</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.52618012999999997</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.53787224099999997</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4988,40 +4980,40 @@
         <v>0.1135</v>
       </c>
       <c r="E4" s="4">
+        <v>6.6637725999999994E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.24990000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.1653</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.30620000000000003</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>6.3038028999999995E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.19869999999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6.6637725999999994E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>6.3038028999999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -5038,40 +5030,40 @@
         <v>0.1578</v>
       </c>
       <c r="E5" s="4">
+        <v>0.15932094399999999</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.18060000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.151</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.15909999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.18709999999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.15989999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.15110000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.1517</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.15215684700000001</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.16259999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.1593</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.16170000000000001</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.15932094399999999</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.15215684700000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -5088,40 +5080,40 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="E6" s="4">
+        <v>0.16929118300000001</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.21779999999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0.13739999999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.17580000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.2351</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.13669999999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.13519999999999999</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.13869999999999999</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>0.12993389999999999</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.1636</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>0.14019999999999999</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>0.13600000000000001</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.16929118300000001</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0.12993389999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -5138,40 +5130,40 @@
         <v>0.1328</v>
       </c>
       <c r="E7" s="4">
+        <v>0.12668509999999999</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.15790000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1198</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.12909999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.15790000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.11890000000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1172</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1164</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.119620957</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1384</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1231</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.11990000000000001</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.12668509999999999</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.119620957</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -5188,40 +5180,40 @@
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.2984714E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.99E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>3.9897711000000002E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.02E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.2984714E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.9897711000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -5238,40 +5230,40 @@
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.6453103999999997E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.3769940000000002E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.6453103999999997E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.3769940000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -5288,40 +5280,40 @@
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>9.2578194000000003E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.16869999999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.10340000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.18740000000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>4.2056214000000001E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>9.2578194000000003E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>4.2056214000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -5338,40 +5330,40 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>9.428947E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.11119999999999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1012</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.1129</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>9.1791160999999996E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.5399999999999999E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>9.428947E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>9.1791160999999996E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -5388,40 +5380,40 @@
         <v>0.1152</v>
       </c>
       <c r="E12" s="4">
+        <v>0.10131960299999999</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.25779999999999997</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.17249999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.25779999999999997</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>0.104</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>0.10010778400000001</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.19320000000000001</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.10131960299999999</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0.10010778400000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -5438,40 +5430,40 @@
         <v>7.4099999999999999E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>9.2826466999999996E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.1837</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.1144</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.2056</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.6058508E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.62E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>9.2826466999999996E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.6058508E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -5488,40 +5480,40 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="E14" s="4">
+        <v>0.13248439200000001</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.19359999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.13769999999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.21299999999999999</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>0.09</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.0542705000000001E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.13789999999999999</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.11E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.1200000000000003E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.13248439200000001</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.0542705000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -5538,40 +5530,40 @@
         <v>7.7200000000000005E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>9.1957857000000004E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.1613</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.1789</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>1.9596517000000001E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>9.1957857000000004E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1.9596517000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -5588,40 +5580,40 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="E16" s="4">
+        <v>0.44563862300000001</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.46089999999999998</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.442</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.44819999999999999</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.46089999999999998</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.441</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.44119999999999998</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.44109999999999999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.44124910000000001</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.44890000000000002</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.44180000000000003</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.44219999999999998</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.44563862300000001</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.44124910000000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -5638,40 +5630,40 @@
         <v>0.1585</v>
       </c>
       <c r="E17" s="4">
+        <v>0.15462015400000001</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.15670000000000001</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.15579999999999999</v>
       </c>
       <c r="G17" s="4">
         <v>0.15579999999999999</v>
       </c>
       <c r="H17" s="4">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="I17" s="4">
         <v>0.15720000000000001</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.15440000000000001</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.1545</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.1547</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.15488243500000001</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.15570000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.1542</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.1545</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.15462015400000001</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.15488243500000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -5688,40 +5680,40 @@
         <v>7.5700000000000003E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>9.7151524000000003E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.1447</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.15859999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.1885139000000001E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.1004</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>7.3599999999999999E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>9.7151524000000003E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.1885139000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -5738,40 +5730,40 @@
         <v>6.6600000000000006E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>8.6642995E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.15670000000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.17979999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>2.3345938E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.09</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>8.6642995E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>2.3345938E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -5788,40 +5780,40 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>6.2842752000000002E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.1162</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.47E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.1348</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2.69E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.2744884E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>6.2842752000000002E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.2744884E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -5838,40 +5830,40 @@
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>6.5467682999999999E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.12330000000000001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>2.46E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>2.2310417999999999E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>6.5467682999999999E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>2.2310417999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5883,13 +5875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36056FE-6067-5948-901D-DEEABB498895}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="15.83203125" customWidth="1"/>
+    <col min="1" max="18" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -5906,40 +5896,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5956,40 +5946,40 @@
         <v>9.0700000000000003E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>0.100153362</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.13139999999999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.1273</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.3168809999999996E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.1004</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.100153362</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.3168809999999996E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -6006,40 +5996,40 @@
         <v>0.52590000000000003</v>
       </c>
       <c r="E3" s="4">
+        <v>0.528315537</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.5716</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.52910000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.52759999999999996</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.55159999999999998</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.52449999999999997</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.52359999999999995</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.52590000000000003</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.57769877400000003</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.69340000000000002</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.52310000000000001</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.5252</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.528315537</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.57769877400000003</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6056,40 +6046,40 @@
         <v>0.1226</v>
       </c>
       <c r="E4" s="4">
+        <v>8.8361324000000005E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.1003</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.16619999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.30620000000000003</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>0.09</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>7.3072015000000004E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.1799</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>8.8361324000000005E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>7.3072015000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6106,40 +6096,40 @@
         <v>0.15859999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.16335673000000001</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.18490000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.15140000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.16309999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.19270000000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.1618</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.15129999999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.15260000000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.15148394300000001</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.1653</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.16070000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.16270000000000001</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.16335673000000001</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.15148394300000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -6156,40 +6146,40 @@
         <v>0.16</v>
       </c>
       <c r="E6" s="4">
+        <v>0.17849238000000001</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.2288</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0.13320000000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.1827</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.2457</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.1351</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.1313</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.13650000000000001</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>0.13274039000000001</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>0.13159999999999999</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>0.1368</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.17849238000000001</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0.13274039000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -6206,40 +6196,40 @@
         <v>0.1336</v>
       </c>
       <c r="E7" s="4">
+        <v>0.128009285</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.1522</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1201</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.1295</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.15790000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.11899999999999999</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.11700000000000001</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1195</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.120056788</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1305</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1242</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.11940000000000001</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.128009285</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.120056788</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -6256,40 +6246,40 @@
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.4356620999999999E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.02E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>3.9870926000000001E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.02E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.4356620999999999E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.9870926000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6306,40 +6296,40 @@
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.7040311000000003E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>6.59E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.366862E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.7040311000000003E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.366862E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -6356,40 +6346,40 @@
         <v>7.1599999999999997E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>0.10854280500000001</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.1845</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.1205</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.20250000000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.7600000000000003E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>4.4206644000000003E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.1217</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.10854280500000001</v>
-      </c>
-      <c r="P10" s="4">
-        <v>4.4206644000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6406,40 +6396,40 @@
         <v>9.2700000000000005E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>9.5104767000000007E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.10059999999999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.1024</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>9.64E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>9.2478828999999999E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.3700000000000006E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.4200000000000006E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>9.5104767000000007E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>9.2478828999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6456,40 +6446,40 @@
         <v>0.42930000000000001</v>
       </c>
       <c r="E12" s="4">
+        <v>9.8837671000000002E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.31590000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>0.1106</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.46400000000000002</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.25779999999999997</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>0.11609999999999999</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>6.7860587999999999E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.27850000000000003</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>9.8837671000000002E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>6.7860587999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -6506,40 +6496,40 @@
         <v>8.6900000000000005E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>0.110076175</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.19850000000000001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.13250000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.2056</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.7167607000000002E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.13780000000000001</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.110076175</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.7167607000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6556,40 +6546,40 @@
         <v>0.1103</v>
       </c>
       <c r="E14" s="4">
+        <v>0.14606311699999999</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.20680000000000001</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.15110000000000001</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.22450000000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.0830601999999996E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.1527</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.11E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.14606311699999999</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.0830601999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6606,40 +6596,40 @@
         <v>9.6100000000000005E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>9.8474825000000002E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.16170000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.1789</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>3.85E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>2.3892584000000001E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>0.10390000000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>9.8474825000000002E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>2.3892584000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6656,40 +6646,40 @@
         <v>0.44519999999999998</v>
       </c>
       <c r="E16" s="4">
+        <v>0.44797823799999997</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.4642</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.44340000000000002</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.45140000000000002</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.4642</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.45490000000000003</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.442</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.4415</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.44214483199999999</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.45300000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.44169999999999998</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.45710000000000001</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.44797823799999997</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.44214483199999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6706,40 +6696,40 @@
         <v>0.1593</v>
       </c>
       <c r="E17" s="4">
+        <v>0.15505406399999999</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.157</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.15629999999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.15640000000000001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.15759999999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.1545</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.155</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.15479999999999999</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.15525478500000001</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.157</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.15409999999999999</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.1545</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.15505406399999999</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.15525478500000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -6756,40 +6746,40 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>0.101699464</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.1474</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.10290000000000001</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.15859999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>7.6300000000000007E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.2803043999999997E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.1019</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.101699464</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.2803043999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -6806,40 +6796,40 @@
         <v>7.3400000000000007E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>0.10130953600000001</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.16350000000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.1028</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.17979999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>4.07E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>2.4595427999999999E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.10780000000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.78E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.10130953600000001</v>
-      </c>
-      <c r="P19" s="4">
-        <v>2.4595427999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -6856,40 +6846,40 @@
         <v>9.2100000000000001E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>6.9822567000000002E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.14230000000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.1075</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.1348</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>3.39E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.5116679999999999E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.41E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2.41E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>6.9822567000000002E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.5116679999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -6906,40 +6896,40 @@
         <v>7.6600000000000001E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>8.046412E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.13289999999999999</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.12330000000000001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>3.1640793E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>2.29E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>8.046412E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>3.1640793E-2</v>
       </c>
     </row>
   </sheetData>
